--- a/insezacweb/assets/files/apoyos.xlsx
+++ b/insezacweb/assets/files/apoyos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CURP</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>id_periodicidad (*)</t>
-  </si>
-  <si>
-    <t>AAAA830602MZSRVL02</t>
   </si>
   <si>
     <t>AAAB940222MZSLLR02</t>
@@ -507,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -570,13 +567,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>4016.36</v>
+        <v>3886.08</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>41182</v>
+        <v>41080</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -602,13 +599,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="3">
-        <v>3886.08</v>
+        <v>4664.16</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>41080</v>
+        <v>41089</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -634,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="3">
-        <v>4664.16</v>
+        <v>1860.8</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>41089</v>
+        <v>41213</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -666,13 +663,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>1860.8</v>
+        <v>1860.08</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>41213</v>
+        <v>41013</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -698,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>1860.08</v>
+        <v>2232.96</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>41013</v>
+        <v>41211</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -730,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>2232.96</v>
+        <v>3886.08</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>41211</v>
+        <v>41028</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -762,13 +759,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>3886.08</v>
+        <v>4664.16</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>41028</v>
+        <v>41119</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -788,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>4664.16</v>
+        <v>1095.5999999999999</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>41119</v>
+        <v>41174</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>1095.5999999999999</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>41174</v>
+        <v>41192</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -864,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>41192</v>
+        <v>41043</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -884,19 +881,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>1200</v>
+        <v>3109.44</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>41043</v>
+        <v>41058</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="3">
-        <v>3109.44</v>
+        <v>1860.08</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>41058</v>
+        <v>41257</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -959,8 +956,8 @@
       <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="4">
-        <v>41257</v>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -974,25 +971,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>1860.08</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>41257</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1001,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,19 +1009,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>1200</v>
+        <v>4382.3999999999996</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
-        <v>41257</v>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1033,12 +1030,12 @@
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1050,13 +1047,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="3">
-        <v>4382.3999999999996</v>
+        <v>3886.08</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
+      <c r="G17" s="4">
+        <v>41119</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1082,13 +1079,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="3">
-        <v>3886.08</v>
+        <v>1860.08</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>41119</v>
+        <v>41048</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1114,13 +1111,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="3">
-        <v>1860.08</v>
+        <v>3109.44</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>41048</v>
+        <v>41272</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1152,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>41272</v>
+        <v>41119</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1172,19 +1169,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>3109.44</v>
+        <v>800</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>41119</v>
+        <v>41192</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1193,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1210,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>41192</v>
+        <v>41087</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -1236,19 +1233,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3">
-        <v>1200</v>
+        <v>3886.08</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>41087</v>
+        <v>41058</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1274,13 +1271,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="3">
-        <v>3886.08</v>
+        <v>1860.08</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
-        <v>41058</v>
+        <v>41180</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -1289,38 +1286,6 @@
         <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>311</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1860.08</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>41180</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
         <v>9</v>
       </c>
     </row>

--- a/insezacweb/assets/files/apoyos.xlsx
+++ b/insezacweb/assets/files/apoyos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CURP</t>
   </si>
@@ -68,19 +68,67 @@
     <t>AAAD980218MZSLGY05</t>
   </si>
   <si>
+    <t>AAAE560802MZSLVR07</t>
+  </si>
+  <si>
+    <t>AAAE880610HZSLLD08</t>
+  </si>
+  <si>
+    <t>AAAE900611MZSDLS01</t>
+  </si>
+  <si>
+    <t>AAAF611222MZSNLR01</t>
+  </si>
+  <si>
+    <t>AAAG610116MZSYVL00</t>
+  </si>
+  <si>
+    <t>AAAG920926MZSLLD05</t>
+  </si>
+  <si>
+    <t>AAAG941123MZSLLD02</t>
+  </si>
+  <si>
+    <t>30/10/2016</t>
+  </si>
+  <si>
+    <t>AAAH721019HZSLGL04</t>
+  </si>
+  <si>
+    <t>AAAH900217HZSRLR04</t>
+  </si>
+  <si>
+    <t>30/04/2016</t>
+  </si>
+  <si>
+    <t>AAAH940606MZSLVL09</t>
+  </si>
+  <si>
+    <t>AAAI710501MZSLNS09</t>
+  </si>
+  <si>
+    <t>AAAI750731MZSLBM04</t>
+  </si>
+  <si>
+    <t>AAAJ780415MZSLLN04</t>
+  </si>
+  <si>
+    <t>AAAJ800923HZSLRN17</t>
+  </si>
+  <si>
+    <t>AAAJ810307HZSRLS01</t>
+  </si>
+  <si>
+    <t>AAAJ810501MZSLMN02</t>
+  </si>
+  <si>
+    <t>AAAJ870307MZSLGH04</t>
+  </si>
+  <si>
     <t>id_programaSocial</t>
   </si>
   <si>
     <t>clave presupuestal</t>
-  </si>
-  <si>
-    <t>AAAA660224MZSNLN00</t>
-  </si>
-  <si>
-    <t>AAAA730807MZSRRG00</t>
-  </si>
-  <si>
-    <t>AAAA830602MZSRVL02</t>
   </si>
 </sst>
 </file>
@@ -90,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +159,8 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +171,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,16 +212,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -456,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,299 +547,701 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>311</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3886.08</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41080</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>311</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4664.16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>41089</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>311</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1860.8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>41213</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>311</v>
+      </c>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1860.08</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>41013</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>311</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2232.96</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41211</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>311</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3886.08</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41028</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>311</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4664.16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>41119</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>313</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1095.5999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>41174</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>311</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>313</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>41192</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>313</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>41043</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>311</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3109.44</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>41058</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>311</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1860.08</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>41257</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>311</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1860.08</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>313</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>41257</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>311</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4382.3999999999996</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>311</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
         <v>3886.08</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>41080</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>311</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4664.16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>41089</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>311</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1860.8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>41213</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>41119</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>311</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1860.08</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>41048</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>311</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3109.44</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>41272</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>311</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3109.44</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>41119</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>313</v>
+      </c>
+      <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>311</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>41192</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>313</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41087</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>311</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3886.08</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>41058</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>311</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
         <v>1860.08</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>41013</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>311</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2232.96</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>41211</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>311</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3886.08</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>41028</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>311</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4664.16</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>41119</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>313</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1095.5999999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>41174</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>313</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>41192</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>2</v>
-      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>41180</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
